--- a/com.jio.cng/testdata/userdata.xlsx
+++ b/com.jio.cng/testdata/userdata.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="userdata" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="sitedata" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="customer" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="usecase_list" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t xml:space="preserve">user_name</t>
   </si>
@@ -96,12 +98,24 @@
     <t xml:space="preserve">whatsapp</t>
   </si>
   <si>
-    <t xml:space="preserve">Port Qasim</t>
+    <t xml:space="preserve">Navda</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
+    <t xml:space="preserve">Hari_Haran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hariharan@maildrop.cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haran</t>
+  </si>
+  <si>
     <t xml:space="preserve">sitename</t>
   </si>
   <si>
@@ -121,6 +135,63 @@
   </si>
   <si>
     <t xml:space="preserve">spark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usecase Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVERCROWDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABSENCE OF FIRE EXTINGUISHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIRE DETECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMOKE DETECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABSENCE OF SAND BUCKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABSENCE OF TRAFFIC CONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEANLINESS OF DUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEHICLE CAME DSM NOT PRESENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FENCING AREA GATE OPEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LARGE QUEUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVERSTAYING OF FOUR WHEELERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVERSTAYING OF TWO WHEELERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSM NOT PRESENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSENGER IN VEHICLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAFETY INSTRUCTIONS NOT AVAILABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVERSTAYING OF HEAVY VEHICLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABSENCE OF MOBILE CASCADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMERA ANGLE CHANGE</t>
   </si>
 </sst>
 </file>
@@ -259,10 +330,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -360,11 +431,55 @@
         <v>25</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Spark123@maildrop.cc"/>
     <hyperlink ref="G2" r:id="rId2" display="sparkcognition@123"/>
     <hyperlink ref="H2" r:id="rId3" display="sparkcognition@123"/>
+    <hyperlink ref="B4" r:id="rId4" display="hariharan@maildrop.cc"/>
+    <hyperlink ref="G4" r:id="rId5" display="sparkcognition@123"/>
+    <hyperlink ref="H4" r:id="rId6" display="sparkcognition@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -387,25 +502,25 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -426,23 +541,26 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -454,4 +572,149 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q14" activeCellId="0" sqref="Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>